--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1119061.772001985</v>
+        <v>1116626.135078277</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.3740962725151</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>259.2912737288223</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,7 +832,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.1627038799784</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>19.6894235114642</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>134.0513867710698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>238.6022248578397</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.84252126103817</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>217.0914199928473</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>18.21469987142398</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238018</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114097</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>73.68367395493831</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035181</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>123.9559213415991</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034035</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>147.0482630621006</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352969</v>
+        <v>34.32106446352832</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.434273714503501</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>8.102241693787223</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758728</v>
+        <v>156.3923706291099</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>140.3074752009593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>76.17049831699812</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.36569740310344</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>54.2978517415894</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740342</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>60.11729550773682</v>
+        <v>70.38407275858998</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>192.8170508184362</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>72.97607332171654</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060374</v>
+        <v>105.896543041953</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>108.2950343703262</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>83.71156409265949</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627878</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>183.6461106372075</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1565.440264581598</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1196.477747641187</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912094</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2678.274518176914</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2325.5058629068</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259409</v>
+        <v>1952.04010464572</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259409</v>
+        <v>1952.04010464572</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986296</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962568</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>1927.329267658444</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>1927.329267658444</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>1927.329267658444</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>1779.416174076051</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>1632.52622657814</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>1464.823389952859</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952859</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952859</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399795</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348671</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797167</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396716</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102581</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022994</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456653</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3210.289959104139</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>2988.523343673665</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>2699.420476799309</v>
       </c>
       <c r="V4" t="n">
-        <v>1914.135768168901</v>
+        <v>2444.735988593422</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>2155.318818556461</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1927.329267658444</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1927.329267658444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1678.621321342321</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.567370137326</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477183</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X5" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.509627919557</v>
       </c>
       <c r="Y5" t="n">
-        <v>2689.770379977556</v>
+        <v>1698.509627919557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927782</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995014</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715945</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592588</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1381.278680221565</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1012.316163281154</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>654.0504646744032</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>654.0504646744032</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>647.1049639251997</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267231</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.03470992366</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.03470992366</v>
+        <v>2158.017852261499</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1767.878520285687</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,61 +4936,61 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
         <v>1708.010285469454</v>
@@ -5002,10 +5002,10 @@
         <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>935.9190763285891</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2017.088884830059</v>
+        <v>1992.551659540966</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.126367889647</v>
+        <v>1623.589142600554</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282896</v>
+        <v>1605.190455861743</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846521</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950446</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469187</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469187</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386835</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420323</v>
+        <v>704.5155104420326</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765426</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856285</v>
       </c>
       <c r="Q11" t="n">
         <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234593</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="U11" t="n">
-        <v>3851.125357744756</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="V11" t="n">
-        <v>3520.062470401186</v>
+        <v>3495.525245112094</v>
       </c>
       <c r="W11" t="n">
-        <v>3167.293815131072</v>
+        <v>3142.756589841979</v>
       </c>
       <c r="X11" t="n">
-        <v>2793.828056869992</v>
+        <v>2769.2908315809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2403.68872489418</v>
+        <v>2379.151499605088</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,25 +5112,25 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376504</v>
+        <v>477.1621322376507</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649601</v>
+        <v>900.4499396649607</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259916</v>
+        <v>1725.649813467297</v>
       </c>
       <c r="O12" t="n">
         <v>2198.621366333046</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>981.3767904364706</v>
+        <v>1094.703173037794</v>
       </c>
       <c r="C13" t="n">
-        <v>812.4406075085637</v>
+        <v>925.7669901098875</v>
       </c>
       <c r="D13" t="n">
-        <v>662.3239680962279</v>
+        <v>775.6503506975517</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>627.7372571151586</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>480.8473096172482</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>313.367412093791</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>169.132356598773</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888921</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542994</v>
@@ -5215,34 +5215,34 @@
         <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551105</v>
+        <v>1935.094986101152</v>
       </c>
       <c r="U13" t="n">
-        <v>2155.909043551105</v>
+        <v>1935.094986101152</v>
       </c>
       <c r="V13" t="n">
-        <v>1901.224555345218</v>
+        <v>1935.094986101152</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.807385308258</v>
+        <v>1645.677816064191</v>
       </c>
       <c r="X13" t="n">
-        <v>1383.81783441024</v>
+        <v>1497.144217011564</v>
       </c>
       <c r="Y13" t="n">
-        <v>1163.02525526671</v>
+        <v>1276.351637868034</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
         <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
         <v>4605.913419421674</v>
@@ -5349,31 +5349,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>438.161135866972</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>928.8934687107234</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254761</v>
+        <v>928.8934687107234</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124812</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
         <v>2517.44942553633</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220739</v>
+        <v>706.6674866466266</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220739</v>
+        <v>537.7313037187197</v>
       </c>
       <c r="D16" t="n">
-        <v>494.0589900220739</v>
+        <v>387.614664306384</v>
       </c>
       <c r="E16" t="n">
-        <v>494.0589900220739</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
         <v>1653.109749005499</v>
@@ -5467,19 +5467,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
         <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958438</v>
+        <v>896.5000339958433</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523136</v>
+        <v>888.3159514768663</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851667</v>
       </c>
       <c r="C19" t="n">
         <v>538.7363435406112</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154064</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>801.6918836311992</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>632.7557007032923</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133955</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310024</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,19 +5920,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5950,10 +5950,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614389</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098238</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819169</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871881</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892777</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.5772922261136</v>
+        <v>983.3556038098234</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819165</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695806</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408905</v>
@@ -6379,16 +6379,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,7 +6397,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,10 +6701,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>727.9786782557278</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835334</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711975</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6883,25 +6883,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2252.19838578386</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1963.123159128058</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1708.438670922171</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>909.6271430859675</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,7 +7008,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
         <v>95.58405025273902</v>
@@ -7023,10 +7023,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327638</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048569</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925213</v>
+        <v>430.7826650753334</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101283</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F37" t="n">
-        <v>149.898275412218</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630036</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,13 +7199,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>707.6725264685181</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>889.3209912987578</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327638</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048569</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925213</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101283</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>149.898275412218</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630036</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.79556933158176e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>336.468341749259</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>177.2721352487793</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>22.47804130497009</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>79.00824149146334</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>78.66139232693655</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613728992</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.9867743084278</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>210.4824116583076</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610406</v>
+        <v>10.8544504695179</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>26.93934589766852</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>72.44497470121424</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>112.9489693570384</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>226.4057028288542</v>
+        <v>216.138925578001</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.265836318569</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.58839950885204</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516656</v>
+        <v>59.62759525031581</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>37.12601365260504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>134.8730892594353</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516652</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>102.8768876993835</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>976922.9588907795</v>
+        <v>976922.9588907796</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>976922.9588907795</v>
+        <v>976922.9588907796</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878239.764283733</v>
+        <v>878239.7642837331</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955347.610974933</v>
+        <v>955347.6109749329</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360039</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>423807.2415876635</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.139218516</v>
+        <v>143114.1392185171</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051378</v>
+        <v>166521.3471051373</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355788</v>
+        <v>11167.23623557887</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115341</v>
+        <v>37377.32855115358</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848919</v>
+        <v>43782.40655848892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818193</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818192</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818164</v>
+        <v>92183.89891818183</v>
       </c>
       <c r="E4" t="n">
         <v>12897.74318952439</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214717</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1056763.567535204</v>
       </c>
       <c r="C6" t="n">
-        <v>271981.1781923883</v>
+        <v>271981.1781923878</v>
       </c>
       <c r="D6" t="n">
-        <v>271981.1781923881</v>
+        <v>271981.1781923877</v>
       </c>
       <c r="E6" t="n">
-        <v>181701.6370174759</v>
+        <v>181491.6727736301</v>
       </c>
       <c r="F6" t="n">
-        <v>181887.0615472866</v>
+        <v>181841.1565517213</v>
       </c>
       <c r="G6" t="n">
-        <v>338822.6646154372</v>
+        <v>338787.9266900015</v>
       </c>
       <c r="H6" t="n">
-        <v>349989.900851016</v>
+        <v>349955.1629255802</v>
       </c>
       <c r="I6" t="n">
-        <v>349989.9008510162</v>
+        <v>349955.1629255803</v>
       </c>
       <c r="J6" t="n">
-        <v>132458.6984537386</v>
+        <v>132423.9605283031</v>
       </c>
       <c r="K6" t="n">
-        <v>349989.900851016</v>
+        <v>349955.1629255806</v>
       </c>
       <c r="L6" t="n">
-        <v>349989.9008510163</v>
+        <v>349955.1629255804</v>
       </c>
       <c r="M6" t="n">
-        <v>312612.5722998627</v>
+        <v>312577.8343744268</v>
       </c>
       <c r="N6" t="n">
-        <v>306207.494292527</v>
+        <v>306172.7563670915</v>
       </c>
       <c r="O6" t="n">
-        <v>346966.6028737915</v>
+        <v>346931.8649483556</v>
       </c>
       <c r="P6" t="n">
-        <v>349989.9008510162</v>
+        <v>349955.1629255804</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012578</v>
+        <v>122.3935669012587</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218292</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063552</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063555</v>
+        <v>149.9868724063562</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063552</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.35974539096549</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95.3917678918607</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.60632145146353</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>345.5834682595433</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>235.6797139073992</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276459</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356967</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>172.3195007956138</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.3954173950154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>69.12041821276557</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.452939267845068e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485651</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726059</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216975</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857429</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898391</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294411</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.750149461514</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.389843704118852</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596482</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202556</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.1178216256418</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845333</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>446.3781762837838</v>
       </c>
       <c r="O12" t="n">
-        <v>388.6056839122522</v>
+        <v>620.3452877431812</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
         <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691794</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509177</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
         <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570615</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826908</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32072,19 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>336.4904271708468</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>604.6315993235836</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32096,7 +32096,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>181.3625385436714</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,22 +33734,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276253</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517103</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584702</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077543</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062444</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156615</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458966</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.5634418457676</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>315.0364642004504</v>
       </c>
       <c r="O12" t="n">
-        <v>246.0094394678077</v>
+        <v>477.7490432987368</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.907376606217</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701847</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>198.6489881964878</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>462.4975654015653</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35744,7 +35744,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>35.68303457970742</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
